--- a/extras/data/ChartData.xlsx
+++ b/extras/data/ChartData.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables" sheetId="1" r:id="rId1"/>
     <sheet name="Small Data Charts" sheetId="2" r:id="rId2"/>
     <sheet name="Big Data Charts" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -130,7 +130,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Tables!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -142,7 +142,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -159,7 +159,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Tables!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -269,7 +269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$12</c:f>
+              <c:f>Tables!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -281,7 +281,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -298,7 +298,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:f>Tables!$E$13:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -404,7 +404,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>Tables!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -416,7 +416,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -433,18 +433,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$15</c:f>
+              <c:f>Tables!$B$13:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0206</c:v>
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1744000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,7 +455,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
+              <c:f>Tables!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -467,7 +467,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -484,7 +484,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$15</c:f>
+              <c:f>Tables!$C$13:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -495,7 +495,7 @@
                   <c:v>1.4159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88319999999999999</c:v>
+                  <c:v>2.2120000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -506,7 +506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$12</c:f>
+              <c:f>Tables!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -518,7 +518,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -535,7 +535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$15</c:f>
+              <c:f>Tables!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -557,7 +557,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$12</c:f>
+              <c:f>Tables!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -569,7 +569,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -586,7 +586,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:f>Tables!$E$13:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -693,7 +693,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$13</c:f>
+              <c:f>Tables!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -705,7 +705,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:f>Tables!$B$12:$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -725,12 +725,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$E$13</c:f>
+              <c:f>Tables!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.65939999999999999</c:v>
+                  <c:v>0.51900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5339999999999998</c:v>
@@ -750,7 +750,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Tables!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -762,7 +762,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:f>Tables!$B$12:$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -782,12 +782,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$E$14</c:f>
+              <c:f>Tables!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.6044</c:v>
+                  <c:v>1.1744000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4159999999999999</c:v>
@@ -807,7 +807,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Tables!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -819,7 +819,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$12:$E$12</c:f>
+              <c:f>Tables!$B$12:$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -839,15 +839,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$E$15</c:f>
+              <c:f>Tables!$B$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0206</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88319999999999999</c:v>
+                  <c:v>1.0404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.9019999999999999</c:v>
@@ -952,7 +952,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>Tables!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -964,7 +964,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -981,7 +981,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:f>Tables!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1091,7 +1091,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>Tables!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1103,7 +1103,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1120,7 +1120,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$7</c:f>
+              <c:f>Tables!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1230,7 +1230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Tables!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1242,7 +1242,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1259,7 +1259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$7</c:f>
+              <c:f>Tables!$E$5:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1365,7 +1365,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$4</c:f>
+              <c:f>Tables!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1377,7 +1377,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1394,7 +1394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>Tables!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1416,7 +1416,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>Tables!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1428,7 +1428,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1445,7 +1445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:f>Tables!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1467,7 +1467,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$4</c:f>
+              <c:f>Tables!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,7 +1479,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1496,7 +1496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$7</c:f>
+              <c:f>Tables!$D$5:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1518,7 +1518,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$4</c:f>
+              <c:f>Tables!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1530,7 +1530,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$5:$A$7</c:f>
+              <c:f>Tables!$A$5:$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1547,7 +1547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$7</c:f>
+              <c:f>Tables!$E$5:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1654,7 +1654,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Tables!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1666,7 +1666,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Tables!$B$4:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1686,7 +1686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:f>Tables!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1711,7 +1711,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Tables!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1723,7 +1723,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Tables!$B$4:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1743,7 +1743,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:f>Tables!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1768,7 +1768,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Tables!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1780,7 +1780,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$E$4</c:f>
+              <c:f>Tables!$B$4:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1800,7 +1800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$E$7</c:f>
+              <c:f>Tables!$B$7:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1913,7 +1913,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$12</c:f>
+              <c:f>Tables!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1925,7 +1925,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1942,18 +1942,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$13:$B$15</c:f>
+              <c:f>Tables!$B$13:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.65939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.6044</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0206</c:v>
+                  <c:v>0.51900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1744000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,7 +2052,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$12</c:f>
+              <c:f>Tables!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2064,7 +2064,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2081,7 +2081,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$13:$C$15</c:f>
+              <c:f>Tables!$C$13:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2092,7 +2092,7 @@
                   <c:v>1.4159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88319999999999999</c:v>
+                  <c:v>2.2120000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2191,7 +2191,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$12</c:f>
+              <c:f>Tables!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2203,7 +2203,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$13:$A$15</c:f>
+              <c:f>Tables!$A$13:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2220,7 +2220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$13:$D$15</c:f>
+              <c:f>Tables!$D$13:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3017,8 +3017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,7 +3148,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.65939999999999999</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="C13">
         <v>2.5339999999999998</v>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="F13">
         <f>SUM(B13:E13)</f>
-        <v>6.0918000000000001</v>
+        <v>5.9514000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>1.6044</v>
+        <v>1.1744000000000001</v>
       </c>
       <c r="C14">
         <v>1.4159999999999999</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="F14">
         <f>SUM(B14:E14)</f>
-        <v>3.8058000000000001</v>
+        <v>3.3757999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,10 +3190,10 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.0206</v>
+        <v>1.0404</v>
       </c>
       <c r="C15">
-        <v>0.88319999999999999</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="D15">
         <v>1.9019999999999999</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="F15">
         <f>SUM(B15:E15)</f>
-        <v>4.0393999999999997</v>
+        <v>5.3879999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/extras/data/ChartData.xlsx
+++ b/extras/data/ChartData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>Frontend</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Architecture</t>
+  </si>
+  <si>
+    <t>Frontend (no Page turn)</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -185,11 +187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="81879040"/>
-        <c:axId val="75439488"/>
+        <c:axId val="72415488"/>
+        <c:axId val="74055680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81879040"/>
+        <c:axId val="72415488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -198,7 +200,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75439488"/>
+        <c:crossAx val="74055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -206,7 +208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75439488"/>
+        <c:axId val="74055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -217,14 +219,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81879040"/>
+        <c:crossAx val="72415488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -281,9 +282,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -292,16 +293,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$E$13:$E$15</c:f>
+              <c:f>Tables!$E$13:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.82</c:v>
                 </c:pt>
@@ -310,6 +314,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -324,11 +331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="130005632"/>
-        <c:axId val="130065152"/>
+        <c:axId val="76259328"/>
+        <c:axId val="76260864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="130005632"/>
+        <c:axId val="76259328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130065152"/>
+        <c:crossAx val="76260864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130065152"/>
+        <c:axId val="76260864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130005632"/>
+        <c:crossAx val="76259328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -416,9 +423,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -427,24 +434,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$13:$B$15</c:f>
+              <c:f>Tables!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1744000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0404</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,9 +480,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -478,16 +491,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$C$13:$C$15</c:f>
+              <c:f>Tables!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.5339999999999998</c:v>
                 </c:pt>
@@ -496,6 +512,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4159999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,9 +537,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -529,24 +548,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$D$13:$D$15</c:f>
+              <c:f>Tables!$D$13:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0784</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.57140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9019999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,9 +594,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -580,16 +605,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$E$13:$E$15</c:f>
+              <c:f>Tables!$E$13:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.82</c:v>
                 </c:pt>
@@ -598,6 +626,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,11 +644,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="128411520"/>
-        <c:axId val="129996672"/>
+        <c:axId val="76161024"/>
+        <c:axId val="76162560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128411520"/>
+        <c:axId val="76161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -626,7 +657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129996672"/>
+        <c:crossAx val="76162560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -634,7 +665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129996672"/>
+        <c:axId val="76162560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128411520"/>
+        <c:crossAx val="76161024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -705,9 +736,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$B$12:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+              <c:f>Tables!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Homepage Load</c:v>
                 </c:pt>
@@ -719,27 +750,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Add Comment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$13:$E$13</c:f>
+              <c:f>Tables!$B$13:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.51900000000000002</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.044</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0784</c:v>
+                  <c:v>0.78200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,9 +799,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$B$12:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+              <c:f>Tables!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Homepage Load</c:v>
                 </c:pt>
@@ -776,27 +813,33 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Add Comment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$14:$E$14</c:f>
+              <c:f>Tables!$B$14:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1744000000000001</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57140000000000002</c:v>
+                  <c:v>1.1459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0460000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,9 +862,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$B$12:$E$12</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+              <c:f>Tables!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>Homepage Load</c:v>
                 </c:pt>
@@ -833,27 +876,96 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Add Comment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$15:$E$15</c:f>
+              <c:f>Tables!$B$15:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0404</c:v>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.044</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.2120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9019999999999999</c:v>
+                  <c:v>1.0780000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5676000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tables!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frontend (no Page turn)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tables!$B$12:$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Homepage Load</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Add a Preference</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Open Review</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Add Comment</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tables!$B$16:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1833999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,11 +980,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97637120"/>
-        <c:axId val="130909696"/>
+        <c:axId val="76196480"/>
+        <c:axId val="76198272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97637120"/>
+        <c:axId val="76196480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -881,7 +993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130909696"/>
+        <c:crossAx val="76198272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -889,7 +1001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130909696"/>
+        <c:axId val="76198272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +1012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97637120"/>
+        <c:crossAx val="76196480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -937,7 +1049,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1007,11 +1118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80307328"/>
-        <c:axId val="80309248"/>
+        <c:axId val="74096640"/>
+        <c:axId val="74098176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80307328"/>
+        <c:axId val="74096640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1020,7 +1131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80309248"/>
+        <c:crossAx val="74098176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +1139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80309248"/>
+        <c:axId val="74098176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1039,14 +1150,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80307328"/>
+        <c:crossAx val="74096640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1076,7 +1186,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1146,11 +1255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="80297344"/>
-        <c:axId val="86927232"/>
+        <c:axId val="75830784"/>
+        <c:axId val="75832320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80297344"/>
+        <c:axId val="75830784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86927232"/>
+        <c:crossAx val="75832320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1167,7 +1276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86927232"/>
+        <c:axId val="75832320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,14 +1287,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80297344"/>
+        <c:crossAx val="75830784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1215,7 +1323,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1285,11 +1392,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="62961536"/>
-        <c:axId val="81912576"/>
+        <c:axId val="75852800"/>
+        <c:axId val="75854592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62961536"/>
+        <c:axId val="75852800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81912576"/>
+        <c:crossAx val="75854592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1306,7 +1413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81912576"/>
+        <c:axId val="75854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,14 +1424,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62961536"/>
+        <c:crossAx val="75852800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1574,11 +1680,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="92657920"/>
-        <c:axId val="94577024"/>
+        <c:axId val="75969664"/>
+        <c:axId val="75971200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92657920"/>
+        <c:axId val="75969664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,7 +1693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94577024"/>
+        <c:crossAx val="75971200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1595,7 +1701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94577024"/>
+        <c:axId val="75971200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,14 +1712,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92657920"/>
+        <c:crossAx val="75969664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1829,11 +1934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122517760"/>
-        <c:axId val="129831296"/>
+        <c:axId val="75997184"/>
+        <c:axId val="75998720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122517760"/>
+        <c:axId val="75997184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129831296"/>
+        <c:crossAx val="75998720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1850,7 +1955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129831296"/>
+        <c:axId val="75998720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,14 +1966,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122517760"/>
+        <c:crossAx val="75997184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1925,9 +2029,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -1936,24 +2040,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$B$13:$B$15</c:f>
+              <c:f>Tables!$B$13:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.51900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1744000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0404</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98199999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,11 +2078,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127491456"/>
-        <c:axId val="130166144"/>
+        <c:axId val="76012928"/>
+        <c:axId val="76039296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127491456"/>
+        <c:axId val="76012928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +2091,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130166144"/>
+        <c:crossAx val="76039296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1989,7 +2099,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="130166144"/>
+        <c:axId val="76039296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127491456"/>
+        <c:crossAx val="76012928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2064,9 +2174,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -2075,16 +2185,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$C$13:$C$15</c:f>
+              <c:f>Tables!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.5339999999999998</c:v>
                 </c:pt>
@@ -2093,6 +2206,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4159999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2107,11 +2223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127424768"/>
-        <c:axId val="127488000"/>
+        <c:axId val="76071680"/>
+        <c:axId val="76073216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127424768"/>
+        <c:axId val="76071680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127488000"/>
+        <c:crossAx val="76073216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2128,7 +2244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127488000"/>
+        <c:axId val="76073216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2139,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127424768"/>
+        <c:crossAx val="76071680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2203,9 +2319,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tables!$A$13:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
+              <c:f>Tables!$A$13:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Backend</c:v>
                 </c:pt>
@@ -2214,24 +2330,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Mixed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Frontend (no Page turn)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tables!$D$13:$D$15</c:f>
+              <c:f>Tables!$D$13:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1.0784</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.57140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9019999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,11 +2368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="127973248"/>
-        <c:axId val="128006784"/>
+        <c:axId val="76228864"/>
+        <c:axId val="76230656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127973248"/>
+        <c:axId val="76228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128006784"/>
+        <c:crossAx val="76230656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2267,7 +2389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128006784"/>
+        <c:axId val="76230656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127973248"/>
+        <c:crossAx val="76228864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2712,8 +2834,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A12:F15" totalsRowShown="0">
-  <autoFilter ref="A12:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A12:F16" totalsRowShown="0">
+  <autoFilter ref="A12:F16"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Architecture"/>
     <tableColumn id="2" name="Homepage Load"/>
@@ -3015,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,20 +3270,20 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.51900000000000002</v>
+        <v>1.044</v>
       </c>
       <c r="C13">
         <v>2.5339999999999998</v>
       </c>
       <c r="D13">
-        <v>1.0784</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="E13">
         <v>1.82</v>
       </c>
       <c r="F13">
         <f>SUM(B13:E13)</f>
-        <v>5.9514000000000005</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3169,20 +3291,20 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>1.1744000000000001</v>
+        <v>2.27</v>
       </c>
       <c r="C14">
         <v>1.4159999999999999</v>
       </c>
       <c r="D14">
-        <v>0.57140000000000002</v>
+        <v>1.1459999999999999</v>
       </c>
       <c r="E14">
         <v>0.214</v>
       </c>
       <c r="F14">
         <f>SUM(B14:E14)</f>
-        <v>3.3757999999999999</v>
+        <v>5.0460000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,20 +3312,41 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>1.0404</v>
+        <v>1.044</v>
       </c>
       <c r="C15">
         <v>2.2120000000000002</v>
       </c>
       <c r="D15">
-        <v>1.9019999999999999</v>
+        <v>1.0780000000000001</v>
       </c>
       <c r="E15">
         <v>0.2336</v>
       </c>
       <c r="F15">
         <f>SUM(B15:E15)</f>
-        <v>5.3879999999999999</v>
+        <v>4.5676000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C16">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.214</v>
+      </c>
+      <c r="F16">
+        <f>SUM(B16:E16)</f>
+        <v>3.1833999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3234,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
